--- a/Solutions/PowerBI EDA Questions.xlsx
+++ b/Solutions/PowerBI EDA Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="713"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="713" firstSheet="1" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Questions " sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Q15" sheetId="16" r:id="rId16"/>
     <sheet name="Q16" sheetId="17" r:id="rId17"/>
     <sheet name="Q17" sheetId="18" r:id="rId18"/>
+    <sheet name="Q18" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>1. How does the sales revenue vary by month?</t>
   </si>
@@ -96,6 +97,9 @@
   </si>
   <si>
     <t>17. What is the distribution of films by length ?</t>
+  </si>
+  <si>
+    <t>17. Most Films done by an actor ?</t>
   </si>
 </sst>
 </file>
@@ -470,6 +474,49 @@
         <a:xfrm>
           <a:off x="0" y="450850"/>
           <a:ext cx="5505449" cy="3155950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="450850"/>
+          <a:ext cx="5543550" cy="2901001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1090,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1446,7 +1493,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1531,6 +1578,38 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>

--- a/Solutions/PowerBI EDA Questions.xlsx
+++ b/Solutions/PowerBI EDA Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="713" firstSheet="1" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="713" firstSheet="1" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Questions " sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Q16" sheetId="17" r:id="rId17"/>
     <sheet name="Q17" sheetId="18" r:id="rId18"/>
     <sheet name="Q18" sheetId="19" r:id="rId19"/>
+    <sheet name="Q19" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>1. How does the sales revenue vary by month?</t>
   </si>
@@ -100,6 +101,9 @@
   </si>
   <si>
     <t>17. Most Films done by an actor ?</t>
+  </si>
+  <si>
+    <t>17. Total Films by rating ?</t>
   </si>
 </sst>
 </file>
@@ -517,6 +521,49 @@
         <a:xfrm>
           <a:off x="1" y="450850"/>
           <a:ext cx="5543550" cy="2901001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="488950"/>
+          <a:ext cx="5549900" cy="2832100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1582,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1634,6 +1681,38 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Solutions/PowerBI EDA Questions.xlsx
+++ b/Solutions/PowerBI EDA Questions.xlsx
@@ -4,29 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="713" firstSheet="1" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="713"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions " sheetId="1" r:id="rId1"/>
-    <sheet name="Q1" sheetId="2" r:id="rId2"/>
-    <sheet name="Q2" sheetId="3" r:id="rId3"/>
-    <sheet name="Q3" sheetId="4" r:id="rId4"/>
-    <sheet name="Q4" sheetId="5" r:id="rId5"/>
-    <sheet name="Q5" sheetId="6" r:id="rId6"/>
-    <sheet name="Q6" sheetId="7" r:id="rId7"/>
-    <sheet name="Q7" sheetId="8" r:id="rId8"/>
-    <sheet name="Q8" sheetId="9" r:id="rId9"/>
-    <sheet name="Q9" sheetId="10" r:id="rId10"/>
-    <sheet name="Q10" sheetId="11" r:id="rId11"/>
-    <sheet name="Q11" sheetId="12" r:id="rId12"/>
-    <sheet name="Q12" sheetId="13" r:id="rId13"/>
-    <sheet name="Q13" sheetId="14" r:id="rId14"/>
-    <sheet name="Q14" sheetId="15" r:id="rId15"/>
-    <sheet name="Q15" sheetId="16" r:id="rId16"/>
-    <sheet name="Q16" sheetId="17" r:id="rId17"/>
-    <sheet name="Q17" sheetId="18" r:id="rId18"/>
-    <sheet name="Q18" sheetId="19" r:id="rId19"/>
-    <sheet name="Q19" sheetId="20" r:id="rId20"/>
+    <sheet name="Q1" sheetId="2" r:id="rId1"/>
+    <sheet name="Q2" sheetId="3" r:id="rId2"/>
+    <sheet name="Q3" sheetId="4" r:id="rId3"/>
+    <sheet name="Q4" sheetId="5" r:id="rId4"/>
+    <sheet name="Q5" sheetId="6" r:id="rId5"/>
+    <sheet name="Q6" sheetId="7" r:id="rId6"/>
+    <sheet name="Q7" sheetId="8" r:id="rId7"/>
+    <sheet name="Q8" sheetId="9" r:id="rId8"/>
+    <sheet name="Q9" sheetId="10" r:id="rId9"/>
+    <sheet name="Q10" sheetId="11" r:id="rId10"/>
+    <sheet name="Q11" sheetId="12" r:id="rId11"/>
+    <sheet name="Q12" sheetId="13" r:id="rId12"/>
+    <sheet name="Q13" sheetId="14" r:id="rId13"/>
+    <sheet name="Q14" sheetId="15" r:id="rId14"/>
+    <sheet name="Q15" sheetId="16" r:id="rId15"/>
+    <sheet name="Q16" sheetId="17" r:id="rId16"/>
+    <sheet name="Q17" sheetId="18" r:id="rId17"/>
+    <sheet name="Q18" sheetId="19" r:id="rId18"/>
+    <sheet name="Q19" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>1. How does the sales revenue vary by month?</t>
   </si>
@@ -110,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +120,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF24292E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,28 +182,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -236,15 +225,58 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109256</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393967</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82550" y="438150"/>
+          <a:ext cx="5188217" cy="3105310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203457</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57316</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -261,8 +293,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="450850"/>
-          <a:ext cx="4330700" cy="2503206"/>
+          <a:off x="69850" y="317500"/>
+          <a:ext cx="5010407" cy="3238666"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -274,149 +306,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>292101</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>17905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="342900"/>
-          <a:ext cx="4559300" cy="2989705"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>535961</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>157837</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="450850"/>
-          <a:ext cx="5276850" cy="2920087"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>88901</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>58617</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="450850"/>
-          <a:ext cx="4965700" cy="3005017"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>70130</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -433,8 +336,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="596900"/>
-          <a:ext cx="5060950" cy="2870480"/>
+          <a:off x="25400" y="444501"/>
+          <a:ext cx="5996961" cy="2901950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -446,50 +349,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="450850"/>
-          <a:ext cx="5505449" cy="3155950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -499,10 +359,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577851</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>138751</xdr:rowOff>
+      <xdr:rowOff>137754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -520,7 +380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1" y="450850"/>
-          <a:ext cx="5543550" cy="2901001"/>
+          <a:ext cx="5454650" cy="2900004"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -532,20 +392,204 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="419100"/>
+          <a:ext cx="5346700" cy="3087622"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>311527</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="459438"/>
+          <a:ext cx="5797927" cy="3242823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="438150"/>
+          <a:ext cx="5467350" cy="2860595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>295291</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="438151"/>
+          <a:ext cx="5781691" cy="3022600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561517</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -562,8 +606,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="488950"/>
-          <a:ext cx="5549900" cy="2832100"/>
+          <a:off x="25401" y="488951"/>
+          <a:ext cx="6022516" cy="3035300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -575,20 +619,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>158751</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>177801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12701</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>169077</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596219</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -605,8 +649,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="476250"/>
-          <a:ext cx="5499100" cy="2721777"/>
+          <a:off x="158751" y="711201"/>
+          <a:ext cx="5314268" cy="2679700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -618,24 +662,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>37109</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:colOff>577851</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>151477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -648,51 +692,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="692151"/>
-          <a:ext cx="4913909" cy="2470150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>107951</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="374651"/>
-          <a:ext cx="6127750" cy="3174970"/>
+          <a:off x="1" y="450851"/>
+          <a:ext cx="6045200" cy="3097876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -752,19 +753,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165101</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71283</xdr:rowOff>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -777,8 +778,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="431801"/>
-          <a:ext cx="4908550" cy="2852582"/>
+          <a:off x="0" y="450850"/>
+          <a:ext cx="5422900" cy="3158464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -797,17 +798,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>146051</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>34883</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>603251</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -820,8 +821,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="342901"/>
-          <a:ext cx="4876800" cy="2466932"/>
+          <a:off x="1" y="355600"/>
+          <a:ext cx="6089650" cy="3132629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,19 +882,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>100424</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -906,8 +907,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="349250"/>
-          <a:ext cx="4864100" cy="2341974"/>
+          <a:off x="95251" y="406400"/>
+          <a:ext cx="5619750" cy="2733648"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1182,137 +1183,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -1323,16 +1222,16 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1343,7 +1242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -1354,16 +1253,16 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1375,27 +1274,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1407,7 +1306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -1418,16 +1317,16 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1439,7 +1338,71 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1450,17 +1413,17 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1471,92 +1434,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1625,6 +1524,38 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
@@ -1636,17 +1567,17 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1658,68 +1589,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1733,18 +1602,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1753,7 +1622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1764,8 +1633,74 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1775,82 +1710,16 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1862,12 +1731,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1876,16 +1745,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1896,7 +1765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -1907,20 +1776,20 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1932,7 +1801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -1943,16 +1812,16 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1962,4 +1831,35 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>